--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_end.xlsx
@@ -564,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]B-Benefactors!
+    <t xml:space="preserve">[name="Mr. Nothing"]B-Benefactors!
 </t>
   </si>
   <si>
@@ -572,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]What nonsense! How could I abandon my benefactors and flee alone?
+    <t xml:space="preserve">[name="Mr. Nothing"]What nonsense! How could I abandon my benefactors and flee alone?
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I—I've never seen them before either... Look at how my legs are trembling...
+    <t xml:space="preserve">[name="Mr. Nothing"]I—I've never seen them before either... Look at how my legs are trembling...
 </t>
   </si>
   <si>
@@ -588,11 +588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]As if they could be! If this gallery of oddities were crawling all the lands, they would've long since broken national news!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lava"]Kroos, Mr.Nothing, listen to me.
+    <t xml:space="preserve">[name="Mr. Nothing"]As if they could be! If this gallery of oddities were crawling all the lands, they would've long since broken national news!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Kroos, Mr. Nothing, listen to me.
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Umbrella-Boiling Hermit.
+    <t xml:space="preserve">[name="Mr. Nothing"]Umbrella-Boiling Hermit.
 </t>
   </si>
   <si>
@@ -612,11 +612,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor, there's one thing I know for certain. This isn't Ni-weng Village...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Though I haven't visited Ni-weng in a few years, the way of the land is fashioned quite old. I ran all the way here just now, and I saw not a single electric cable!
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor, there's one thing I know for certain. This isn't Ni-weng Village...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Though I haven't visited Ni-weng in a few years, the way of the land is fashioned quite old. I ran all the way here just now, and I saw not a single electric cable!
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ho? Benefactors! You shouldn't doubt me now! I'm not the sort of lout that flouts others' graces to him! I'd hardly even be able!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ho? Benefactors! You shouldn't doubt me now! I'm not the sort of lout that flouts others' graces to him! I'd hardly even be able!
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Now, benefactor, don't treat me like I'm young. I may be carefree as the wind, but I'd still wager I'm older than you...
+    <t xml:space="preserve">[name="Mr. Nothing"]Now, benefactor, don't treat me like I'm young. I may be carefree as the wind, but I'd still wager I'm older than you...
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]You're quite the eccentrics, my benefactors. Any normal person would never be capable of this line of thought under these pressing circumstances.
+    <t xml:space="preserve">[name="Mr. Nothing"]You're quite the eccentrics, my benefactors. Any normal person would never be capable of this line of thought under these pressing circumstances.
 </t>
   </si>
   <si>
@@ -976,15 +976,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="사가"]오, 사장님, 여긴 어쩐 일이오?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="상점 주인"]종소리를 들었단다. 모두 끝난 거니?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="상점 주인"]이추안 아저씨가, 멀리서 오신 손님 몇 분이 우리 마을을 보호해 주셨다고 그러던데, 혹시 본 적 있니?
+    <t xml:space="preserve">[name="사가"]오, 주인장, 여긴 어쩐 일이오?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="전당포 주인"]종소리를 들었단다. 모두 끝난 거니?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="전당포 주인"]이추안 아저씨가, 멀리서 오신 손님 몇 분이 우리 마을을 보호해 주셨다고 그러던데, 혹시 본 적 있니?
 </t>
   </si>
   <si>
@@ -996,7 +996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]그래서 네게 그 외부인들을 좀 만나보라 부탁할까 하는데.
+    <t xml:space="preserve">[name="전당포 주인"]그래서 네게 그 외부인들을 좀 만나보라 부탁할까 하는데.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_end.xlsx
@@ -924,7 +924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]종이 또 울리네~?
+    <t xml:space="preserve">[name="라바"]종이 또 울리네……?
 </t>
   </si>
   <si>
